--- a/approaches/our_data/our_ground_truth/GitLab Branch API/response_property_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Branch API/response_property_constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Branch API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth_new\GitLab Branch API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777FCF33-3C64-47FD-B938-51DCB55893C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A112A3-5635-437B-82CB-772846370509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="1605" windowWidth="23685" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
   <si>
     <t>operation</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Branch</t>
+  </si>
+  <si>
+    <t>avatar_url</t>
+  </si>
+  <si>
+    <t>ssh_url_to_repo</t>
   </si>
 </sst>
 </file>
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1290,76 @@
         <v>6</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
